--- a/results_v1/res_bus/vm_pu.xlsx
+++ b/results_v1/res_bus/vm_pu.xlsx
@@ -430,34 +430,34 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9625216373630457</v>
+        <v>0.9698122108198449</v>
       </c>
       <c r="D2">
-        <v>0.9420080702267651</v>
+        <v>0.9529852630895823</v>
       </c>
       <c r="E2">
-        <v>0.9535006574922534</v>
+        <v>0.9603205543981369</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9577270334324711</v>
+        <v>0.9612272133641822</v>
       </c>
       <c r="H2">
-        <v>0.9428630246025571</v>
+        <v>0.9790413854876995</v>
       </c>
       <c r="N2">
-        <v>0.9447509313086327</v>
+        <v>0.9519789438592849</v>
       </c>
       <c r="O2">
-        <v>0.9139963845276247</v>
+        <v>0.9238455084792995</v>
       </c>
       <c r="P2">
-        <v>0.9358179367452756</v>
+        <v>0.9422615315360027</v>
       </c>
       <c r="Q2">
-        <v>0.940375781196953</v>
+        <v>0.9431045039918349</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9630035245721688</v>
+        <v>0.9706136789634905</v>
       </c>
       <c r="D3">
-        <v>0.9420774213422275</v>
+        <v>0.954871696902684</v>
       </c>
       <c r="E3">
-        <v>0.9534314163581272</v>
+        <v>0.9615724601702273</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9577036690621235</v>
+        <v>0.9634590268856367</v>
       </c>
       <c r="H3">
-        <v>0.9429324386601975</v>
+        <v>0.9793976455379224</v>
       </c>
       <c r="N3">
-        <v>0.9454151658863424</v>
+        <v>0.9531825133177362</v>
       </c>
       <c r="O3">
-        <v>0.9139119168543426</v>
+        <v>0.9271359652915082</v>
       </c>
       <c r="P3">
-        <v>0.9355931387295916</v>
+        <v>0.943843909817737</v>
       </c>
       <c r="Q3">
-        <v>0.9403111971936835</v>
+        <v>0.9461300548773003</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -506,34 +506,34 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9621894712833925</v>
+        <v>0.9708443536590676</v>
       </c>
       <c r="D4">
-        <v>0.9423541371975857</v>
+        <v>0.9559908909154811</v>
       </c>
       <c r="E4">
-        <v>0.9538390012105314</v>
+        <v>0.9624565777921139</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9582984761084858</v>
+        <v>0.9645788809083338</v>
       </c>
       <c r="H4">
-        <v>0.9432094056592973</v>
+        <v>0.9793449946902363</v>
       </c>
       <c r="N4">
-        <v>0.9449671815145189</v>
+        <v>0.953666867724872</v>
       </c>
       <c r="O4">
-        <v>0.9149356887235263</v>
+        <v>0.9292731163603771</v>
       </c>
       <c r="P4">
-        <v>0.9364003118980483</v>
+        <v>0.9450810889796</v>
       </c>
       <c r="Q4">
-        <v>0.9411938884755908</v>
+        <v>0.9476122354241161</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -544,34 +544,34 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.963244761028784</v>
+        <v>0.9704739592401928</v>
       </c>
       <c r="D5">
-        <v>0.9430628584982343</v>
+        <v>0.9544482639487086</v>
       </c>
       <c r="E5">
-        <v>0.9542740763818031</v>
+        <v>0.9616277618114513</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9582868074753368</v>
+        <v>0.9633345901695214</v>
       </c>
       <c r="H5">
-        <v>0.9439187701862585</v>
+        <v>0.9793002181357361</v>
       </c>
       <c r="N5">
-        <v>0.9458656264060613</v>
+        <v>0.9530013174145127</v>
       </c>
       <c r="O5">
-        <v>0.9153825899107826</v>
+        <v>0.9262426136844386</v>
       </c>
       <c r="P5">
-        <v>0.9366203201639065</v>
+        <v>0.9442038639739797</v>
       </c>
       <c r="Q5">
-        <v>0.9409381903679098</v>
+        <v>0.9460164187793213</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -582,34 +582,34 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.9638421801595461</v>
+        <v>0.9712412669363749</v>
       </c>
       <c r="D6">
-        <v>0.9409940219533461</v>
+        <v>0.9563327150658172</v>
       </c>
       <c r="E6">
-        <v>0.9528276810218133</v>
+        <v>0.9630922613666635</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9565809761066161</v>
+        <v>0.9647290249772117</v>
       </c>
       <c r="H6">
-        <v>0.9418480559920031</v>
+        <v>0.9794932472634776</v>
       </c>
       <c r="N6">
-        <v>0.9461336934504497</v>
+        <v>0.9542506168604993</v>
       </c>
       <c r="O6">
-        <v>0.9113237580263355</v>
+        <v>0.9295277365025099</v>
       </c>
       <c r="P6">
-        <v>0.9347872977905469</v>
+        <v>0.9460783280346903</v>
       </c>
       <c r="Q6">
-        <v>0.9387482267032267</v>
+        <v>0.9477288369436123</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -620,34 +620,34 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.9632344760763702</v>
+        <v>0.9704876203680587</v>
       </c>
       <c r="D7">
-        <v>0.9433849159449547</v>
+        <v>0.9539502448311526</v>
       </c>
       <c r="E7">
-        <v>0.954592333217808</v>
+        <v>0.961218241415754</v>
       </c>
       <c r="F7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.958383285324128</v>
+        <v>0.9620925324334364</v>
       </c>
       <c r="H7">
-        <v>0.9442411199281635</v>
+        <v>0.9793912907074485</v>
       </c>
       <c r="N7">
-        <v>0.94582950660378</v>
+        <v>0.9529241483515739</v>
       </c>
       <c r="O7">
-        <v>0.9158689772884331</v>
+        <v>0.9251556993896202</v>
       </c>
       <c r="P7">
-        <v>0.9370307014653205</v>
+        <v>0.9434421788626646</v>
       </c>
       <c r="Q7">
-        <v>0.9409993267785552</v>
+        <v>0.9441675169162882</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -658,34 +658,34 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.9634643565084374</v>
+        <v>0.9700659288076063</v>
       </c>
       <c r="D8">
-        <v>0.9407948406704085</v>
+        <v>0.9554419990062508</v>
       </c>
       <c r="E8">
-        <v>0.952568661346753</v>
+        <v>0.9619716077672131</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9564192529177911</v>
+        <v>0.96358824246464</v>
       </c>
       <c r="H8">
-        <v>0.9416486939347017</v>
+        <v>0.979773561383082</v>
       </c>
       <c r="N8">
-        <v>0.9453871939970078</v>
+        <v>0.9518997588831235</v>
       </c>
       <c r="O8">
-        <v>0.9111054031008431</v>
+        <v>0.9280478765373846</v>
       </c>
       <c r="P8">
-        <v>0.9343311528535567</v>
+        <v>0.9440777605905646</v>
       </c>
       <c r="Q8">
-        <v>0.9385273462998567</v>
+        <v>0.9461040858255199</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -696,34 +696,34 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.9619699514668594</v>
+        <v>0.9661683725538689</v>
       </c>
       <c r="D9">
-        <v>0.9389456381776374</v>
+        <v>0.9471845571858093</v>
       </c>
       <c r="E9">
-        <v>0.950975871522824</v>
+        <v>0.9560138581700934</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G9">
-        <v>0.9548433896900484</v>
+        <v>0.9562204850636592</v>
       </c>
       <c r="H9">
-        <v>0.9397978131295968</v>
+        <v>0.9766781905316775</v>
       </c>
       <c r="N9">
-        <v>0.9427904639293586</v>
+        <v>0.9471503534806829</v>
       </c>
       <c r="O9">
-        <v>0.9085035421028193</v>
+        <v>0.9148877691008711</v>
       </c>
       <c r="P9">
-        <v>0.9320345953671657</v>
+        <v>0.9365384016086168</v>
       </c>
       <c r="Q9">
-        <v>0.9364777108805238</v>
+        <v>0.9365292852071269</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -734,34 +734,34 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.9617631257058994</v>
+        <v>0.9689325276036012</v>
       </c>
       <c r="D10">
-        <v>0.9381609153654284</v>
+        <v>0.9530048162222965</v>
       </c>
       <c r="E10">
-        <v>0.9504715924757817</v>
+        <v>0.9603173059904283</v>
       </c>
       <c r="F10">
         <v>0.9999999999999999</v>
       </c>
       <c r="G10">
-        <v>0.9539074036726536</v>
+        <v>0.9620417249481354</v>
       </c>
       <c r="H10">
-        <v>0.9390123781130838</v>
+        <v>0.9790660577589095</v>
       </c>
       <c r="N10">
-        <v>0.9425816997532808</v>
+        <v>0.9503656563739077</v>
       </c>
       <c r="O10">
-        <v>0.907262770001585</v>
+        <v>0.9240150972436084</v>
       </c>
       <c r="P10">
-        <v>0.9314295675729434</v>
+        <v>0.9421939799434821</v>
       </c>
       <c r="Q10">
-        <v>0.9352050798396853</v>
+        <v>0.944287302685083</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -772,34 +772,34 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.9615976893778778</v>
+        <v>0.9693530560998549</v>
       </c>
       <c r="D11">
-        <v>0.9392668616615967</v>
+        <v>0.9535954712267207</v>
       </c>
       <c r="E11">
-        <v>0.9509851206483049</v>
+        <v>0.9604937095394525</v>
       </c>
       <c r="F11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9549590507943827</v>
+        <v>0.9618542541322511</v>
       </c>
       <c r="H11">
-        <v>0.9401193281518478</v>
+        <v>0.979360173314347</v>
       </c>
       <c r="N11">
-        <v>0.9419698837974446</v>
+        <v>0.9508893210571023</v>
       </c>
       <c r="O11">
-        <v>0.9092061199777486</v>
+        <v>0.9249400610536785</v>
       </c>
       <c r="P11">
-        <v>0.9317773466586342</v>
+        <v>0.9420333237403028</v>
       </c>
       <c r="Q11">
-        <v>0.9365612649211013</v>
+        <v>0.9438277604813092</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -810,34 +810,34 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.9557762404714609</v>
+        <v>0.9673193186823115</v>
       </c>
       <c r="D12">
-        <v>0.9271626912108963</v>
+        <v>0.9489173206442182</v>
       </c>
       <c r="E12">
-        <v>0.9428509789343695</v>
+        <v>0.957353765337166</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G12">
-        <v>0.9463455014315826</v>
+        <v>0.9579378489657718</v>
       </c>
       <c r="H12">
-        <v>0.9280041721121495</v>
+        <v>0.9774949797712397</v>
       </c>
       <c r="N12">
-        <v>0.9360918012132823</v>
+        <v>0.9486194312605719</v>
       </c>
       <c r="O12">
-        <v>0.891510093318033</v>
+        <v>0.9174051367326682</v>
       </c>
       <c r="P12">
-        <v>0.9224740763130764</v>
+        <v>0.9383563982090317</v>
       </c>
       <c r="Q12">
-        <v>0.925992633467397</v>
+        <v>0.938831805876284</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -848,34 +848,34 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.9629700232678186</v>
+        <v>0.9699266732394778</v>
       </c>
       <c r="D13">
-        <v>0.9388934052818888</v>
+        <v>0.9539089152582899</v>
       </c>
       <c r="E13">
-        <v>0.9510502975073245</v>
+        <v>0.9607800073911225</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9534880742407471</v>
+        <v>0.9615148292767002</v>
       </c>
       <c r="H13">
-        <v>0.9397455328279456</v>
+        <v>0.9795107422378447</v>
       </c>
       <c r="N13">
-        <v>0.9445198277062467</v>
+        <v>0.9518074557695155</v>
       </c>
       <c r="O13">
-        <v>0.9080830452571343</v>
+        <v>0.9252824291572512</v>
       </c>
       <c r="P13">
-        <v>0.9320628860121936</v>
+        <v>0.9423618886679623</v>
       </c>
       <c r="Q13">
-        <v>0.9343686210294039</v>
+        <v>0.9432256755505057</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -886,34 +886,34 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.9623677703182373</v>
+        <v>0.9682933227098148</v>
       </c>
       <c r="D14">
-        <v>0.9393898197489381</v>
+        <v>0.9501372543387444</v>
       </c>
       <c r="E14">
-        <v>0.9513934302002629</v>
+        <v>0.958378904853771</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G14">
-        <v>0.9544101396192319</v>
+        <v>0.9595304581726494</v>
       </c>
       <c r="H14">
-        <v>0.9402423978343631</v>
+        <v>0.9780082076133193</v>
       </c>
       <c r="N14">
-        <v>0.9433510338823947</v>
+        <v>0.9500068043842523</v>
       </c>
       <c r="O14">
-        <v>0.9090912024973012</v>
+        <v>0.9191344325457803</v>
       </c>
       <c r="P14">
-        <v>0.932557122033124</v>
+        <v>0.9398884382625865</v>
       </c>
       <c r="Q14">
-        <v>0.935704319553326</v>
+        <v>0.9410612762384537</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -924,34 +924,34 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.9632239250860541</v>
+        <v>0.9677163333992199</v>
       </c>
       <c r="D15">
-        <v>0.9420140717271018</v>
+        <v>0.9509927104454217</v>
       </c>
       <c r="E15">
-        <v>0.9533044136980655</v>
+        <v>0.9586048552351812</v>
       </c>
       <c r="F15">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G15">
-        <v>0.9565960549318622</v>
+        <v>0.960131031106909</v>
       </c>
       <c r="H15">
-        <v>0.9428690315497782</v>
+        <v>0.9783806048205584</v>
       </c>
       <c r="N15">
-        <v>0.9447098382759498</v>
+        <v>0.9486519546945107</v>
       </c>
       <c r="O15">
-        <v>0.9132680286864628</v>
+        <v>0.920910421817651</v>
       </c>
       <c r="P15">
-        <v>0.9349942018776337</v>
+        <v>0.93973127569244</v>
       </c>
       <c r="Q15">
-        <v>0.9385117021145275</v>
+        <v>0.9417615430419257</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -962,34 +962,34 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.9623890986483685</v>
+        <v>0.9681959124612737</v>
       </c>
       <c r="D16">
-        <v>0.9389577219394709</v>
+        <v>0.9523836400197274</v>
       </c>
       <c r="E16">
-        <v>0.9506579651700188</v>
+        <v>0.9597695950300674</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9543149311326607</v>
+        <v>0.9606252723132165</v>
       </c>
       <c r="H16">
-        <v>0.9398099078584965</v>
+        <v>0.9789295013702303</v>
       </c>
       <c r="N16">
-        <v>0.9434605941937837</v>
+        <v>0.9491002531703392</v>
       </c>
       <c r="O16">
-        <v>0.9084947333777232</v>
+        <v>0.9231581680420963</v>
       </c>
       <c r="P16">
-        <v>0.9312147130041375</v>
+        <v>0.9412833109237382</v>
       </c>
       <c r="Q16">
-        <v>0.9356265918661262</v>
+        <v>0.9422229168089052</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1000,34 +1000,34 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.9626913591291354</v>
+        <v>0.9696540467393721</v>
       </c>
       <c r="D17">
-        <v>0.9408733541927581</v>
+        <v>0.9539545471746873</v>
       </c>
       <c r="E17">
-        <v>0.9526649539199245</v>
+        <v>0.9604752686707823</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G17">
-        <v>0.9567658675611207</v>
+        <v>0.9619852489505095</v>
       </c>
       <c r="H17">
-        <v>0.941727278714912</v>
+        <v>0.9795152840311223</v>
       </c>
       <c r="N17">
-        <v>0.9442122364220522</v>
+        <v>0.95131252256142</v>
       </c>
       <c r="O17">
-        <v>0.9116021200483215</v>
+        <v>0.9255526910321416</v>
       </c>
       <c r="P17">
-        <v>0.9345897127228957</v>
+        <v>0.9417035628732112</v>
       </c>
       <c r="Q17">
-        <v>0.9390752955062013</v>
+        <v>0.9439307517295402</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1038,34 +1038,34 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.9629284309584748</v>
+        <v>0.9682680880188029</v>
       </c>
       <c r="D18">
-        <v>0.9423240179611895</v>
+        <v>0.9519013284849145</v>
       </c>
       <c r="E18">
-        <v>0.9534835631900838</v>
+        <v>0.9590947581957782</v>
       </c>
       <c r="F18">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9570042724687658</v>
+        <v>0.9602976171374912</v>
       </c>
       <c r="H18">
-        <v>0.9431792590870708</v>
+        <v>0.9787728182479681</v>
       </c>
       <c r="N18">
-        <v>0.9442792576273609</v>
+        <v>0.949348454151457</v>
       </c>
       <c r="O18">
-        <v>0.9139476260745115</v>
+        <v>0.9223708919141932</v>
       </c>
       <c r="P18">
-        <v>0.9352063835286611</v>
+        <v>0.9400807014801605</v>
       </c>
       <c r="Q18">
-        <v>0.9390758772725726</v>
+        <v>0.9417902806688182</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1076,34 +1076,34 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.9610411774056797</v>
+        <v>0.9674726830619769</v>
       </c>
       <c r="D19">
-        <v>0.9357420766707726</v>
+        <v>0.9510794474643112</v>
       </c>
       <c r="E19">
-        <v>0.9488847658911334</v>
+        <v>0.9585457932175889</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G19">
-        <v>0.9521808747258672</v>
+        <v>0.9602087272250071</v>
       </c>
       <c r="H19">
-        <v>0.9365913441116238</v>
+        <v>0.9784148882544769</v>
       </c>
       <c r="N19">
-        <v>0.9420546719837081</v>
+        <v>0.9481743265553707</v>
       </c>
       <c r="O19">
-        <v>0.9035555550593902</v>
+        <v>0.9211933644007199</v>
       </c>
       <c r="P19">
-        <v>0.929714461437659</v>
+        <v>0.9395532361236208</v>
       </c>
       <c r="Q19">
-        <v>0.9331177868374153</v>
+        <v>0.9418650324678571</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1114,34 +1114,34 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9623011903684512</v>
+        <v>0.9681575722571429</v>
       </c>
       <c r="D20">
-        <v>0.94011738918097</v>
+        <v>0.9518942623756997</v>
       </c>
       <c r="E20">
-        <v>0.9516848340685078</v>
+        <v>0.9594532686522602</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9554425583712779</v>
+        <v>0.961118270597401</v>
       </c>
       <c r="H20">
-        <v>0.9409706275990286</v>
+        <v>0.9786633338843356</v>
       </c>
       <c r="N20">
-        <v>0.9431955961726246</v>
+        <v>0.9492600401616873</v>
       </c>
       <c r="O20">
-        <v>0.9104682270385259</v>
+        <v>0.9223794484100255</v>
       </c>
       <c r="P20">
-        <v>0.9328114184266111</v>
+        <v>0.9411282259742957</v>
       </c>
       <c r="Q20">
-        <v>0.9371649335097723</v>
+        <v>0.943146098445361</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1152,34 +1152,34 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.9617361428682593</v>
+        <v>0.9649945130849692</v>
       </c>
       <c r="D21">
-        <v>0.9390182239302467</v>
+        <v>0.9472414249307485</v>
       </c>
       <c r="E21">
-        <v>0.950470991675965</v>
+        <v>0.9554764312748447</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9538950473624619</v>
+        <v>0.9561868219323549</v>
       </c>
       <c r="H21">
-        <v>0.9398704647600994</v>
+        <v>0.9766987055308097</v>
       </c>
       <c r="N21">
-        <v>0.9422106993021695</v>
+        <v>0.9449467492559454</v>
       </c>
       <c r="O21">
-        <v>0.908935633845498</v>
+        <v>0.9156285427104842</v>
       </c>
       <c r="P21">
-        <v>0.9307280844440925</v>
+        <v>0.9352986254278356</v>
       </c>
       <c r="Q21">
-        <v>0.9349661735123385</v>
+        <v>0.9364601655131125</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1190,34 +1190,34 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.960186730426439</v>
+        <v>0.9672974255268536</v>
       </c>
       <c r="D22">
-        <v>0.9354169095403522</v>
+        <v>0.9514076031195094</v>
       </c>
       <c r="E22">
-        <v>0.9480390967370347</v>
+        <v>0.9584230326576056</v>
       </c>
       <c r="F22">
         <v>0.9999999999999999</v>
       </c>
       <c r="G22">
-        <v>0.9514268334812092</v>
+        <v>0.9598927212669797</v>
       </c>
       <c r="H22">
-        <v>0.9362658818637092</v>
+        <v>0.9785727946699591</v>
       </c>
       <c r="N22">
-        <v>0.9405839923272252</v>
+        <v>0.9477117900351912</v>
       </c>
       <c r="O22">
-        <v>0.9035784199315705</v>
+        <v>0.9219735211225727</v>
       </c>
       <c r="P22">
-        <v>0.9279515935903087</v>
+        <v>0.9389700600969655</v>
       </c>
       <c r="Q22">
-        <v>0.931976878561844</v>
+        <v>0.9412853203095346</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1228,34 +1228,34 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.9618766660463115</v>
+        <v>0.9676095098104359</v>
       </c>
       <c r="D23">
-        <v>0.9383011644155507</v>
+        <v>0.9507492526906095</v>
       </c>
       <c r="E23">
-        <v>0.9508122841971051</v>
+        <v>0.9583143790059241</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.954323143350024</v>
+        <v>0.9603130321898943</v>
       </c>
       <c r="H23">
-        <v>0.9391527544514348</v>
+        <v>0.9782558951307357</v>
       </c>
       <c r="N23">
-        <v>0.9429156128027066</v>
+        <v>0.9485634519911909</v>
       </c>
       <c r="O23">
-        <v>0.9075114053460165</v>
+        <v>0.920613497258168</v>
       </c>
       <c r="P23">
-        <v>0.9322775129857775</v>
+        <v>0.9393783781813111</v>
       </c>
       <c r="Q23">
-        <v>0.9359015059290672</v>
+        <v>0.942131811653634</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1266,34 +1266,34 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.9626160069664151</v>
+        <v>0.9675581004852239</v>
       </c>
       <c r="D24">
-        <v>0.9408556764549797</v>
+        <v>0.9511975922398623</v>
       </c>
       <c r="E24">
-        <v>0.9519848627064256</v>
+        <v>0.9585961182720438</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G24">
-        <v>0.9556957195863549</v>
+        <v>0.9603874230375351</v>
       </c>
       <c r="H24">
-        <v>0.9417095849330467</v>
+        <v>0.9784232182381781</v>
       </c>
       <c r="N24">
-        <v>0.9436673906313516</v>
+        <v>0.9483382696361853</v>
       </c>
       <c r="O24">
-        <v>0.9117370785493263</v>
+        <v>0.9214920581937742</v>
       </c>
       <c r="P24">
-        <v>0.9329665638067104</v>
+        <v>0.9397225337564948</v>
       </c>
       <c r="Q24">
-        <v>0.9374038894164244</v>
+        <v>0.9421747798904617</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1304,34 +1304,34 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.961970546401602</v>
+        <v>0.9684366157591883</v>
       </c>
       <c r="D25">
-        <v>0.9411453175776352</v>
+        <v>0.9506829962338205</v>
       </c>
       <c r="E25">
-        <v>0.9527737027427331</v>
+        <v>0.9584779118266485</v>
       </c>
       <c r="F25">
         <v>0.9999999999999999</v>
       </c>
       <c r="G25">
-        <v>0.9573236439796816</v>
+        <v>0.9596746814807124</v>
       </c>
       <c r="H25">
-        <v>0.9419994889302497</v>
+        <v>0.9781851745678694</v>
       </c>
       <c r="N25">
-        <v>0.9439477808848719</v>
+        <v>0.9501450919482382</v>
       </c>
       <c r="O25">
-        <v>0.9128936702490104</v>
+        <v>0.9203596099254987</v>
       </c>
       <c r="P25">
-        <v>0.9349781655684212</v>
+        <v>0.9399294460156529</v>
       </c>
       <c r="Q25">
-        <v>0.940000844699444</v>
+        <v>0.9412630761553386</v>
       </c>
     </row>
   </sheetData>
